--- a/实验项目.xlsx
+++ b/实验项目.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Desktop\lsr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoxu/Downloads/w/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8D8905-5096-4305-AF3D-5D8BB3F066AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2361F045-48DE-0342-8168-99B4D022675F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="15" windowWidth="20400" windowHeight="13035" activeTab="2" xr2:uid="{74B75C6C-09FB-9C47-A3C3-9794FC78C573}"/>
+    <workbookView xWindow="9840" yWindow="760" windowWidth="20400" windowHeight="13040" activeTab="3" xr2:uid="{74B75C6C-09FB-9C47-A3C3-9794FC78C573}"/>
   </bookViews>
   <sheets>
     <sheet name="libtiff" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="111">
   <si>
     <t>Vuddy 监测部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已补丁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://git.openssl.org/?p=openssl.git;a=commitdiff;h=df6b5e29ffea2d5a3e08de92fb765fdb21c7a21e;hp=4b390b6c3f8df925dc92a3dd6b022baa9a2f4650</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,6 +238,213 @@
   </si>
   <si>
     <t>https://git.openssl.org/gitweb/?p=openssl.git;a=commitdiff;h=e32bc855a81a2d48d215c506bdeb4f598045f7e9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2006-6058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无相关代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2011-1076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git.kernel.org/pub/scm/linux/kernel/git/torvalds/linux.git/commit/?id=1362fa078dae16776cd439791c6605b224ea6171</t>
+  </si>
+  <si>
+    <t>CVE-2011-4081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/torvalds/linux/commit/7ed47b7d142ec99ad6880bbbec51e9f12b3af74c</t>
+  </si>
+  <si>
+    <t>CVE-2012-6536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/torvalds/linux/commit/ecd7918745234e423dd87fcc0c077da557909720</t>
+  </si>
+  <si>
+    <t>CVE-2013-0343</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git.kernel.org/pub/scm/linux/kernel/git/netdev/net.git/commit/?id=4b08a8f1bd8cb4541c93ec170027b4d0782dab52</t>
+  </si>
+  <si>
+    <t>CVE-2013-0871</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git.kernel.org/pub/scm/linux/kernel/git/torvalds/linux.git/commit/?id=9899d11f654474d2d54ea52ceaa2a1f4db3abd68</t>
+  </si>
+  <si>
+    <t>CVE-2013-2636</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/torvalds/linux/commit/c085c49920b2f900ba716b4ca1c1a55ece9872cc</t>
+  </si>
+  <si>
+    <t>CVE-2013-2891</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://marc.info/?l=linux-input&amp;m=137772184614622&amp;w=1</t>
+  </si>
+  <si>
+    <t>CVE-2013-2893</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://marc.info/?l=linux-input&amp;m=137772186714627&amp;w=1</t>
+  </si>
+  <si>
+    <t>CVE-2013-7266</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/torvalds/linux/commit/f3d3342602f8bcbf37d7c46641cb9bca7618eb1c</t>
+  </si>
+  <si>
+    <t>CVE-2015-7799</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bugzilla.redhat.com/show_bug.cgi?id=1271134</t>
+  </si>
+  <si>
+    <t>CVE-2015-8543</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/torvalds/linux/commit/79462ad02e861803b3840cc782248c7359451cd9</t>
+  </si>
+  <si>
+    <t>CVE-2016-0758</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/torvalds/linux/commit/23c8a812dc3c621009e4f0e5342aa4e2ede1ceaa</t>
+  </si>
+  <si>
+    <t>CVE-2016-6787</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git.kernel.org/pub/scm/linux/kernel/git/torvalds/linux.git/commit/?id=f63a8daa5812afef4f06c962351687e1ff9ccb2b</t>
+  </si>
+  <si>
+    <t>CVE-2016-7039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://patchwork.ozlabs.org/project/netdev/patch/8fb8ec65c178b4d37951c4538dedc880eef068d4.1476106975.git.sd@queasysnail.net/</t>
+  </si>
+  <si>
+    <t>CVE-2017-1000365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2017-10661</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git.kernel.org/pub/scm/linux/kernel/git/torvalds/linux.git/commit/?id=1e38da300e1e395a15048b0af1e5305bd91402f6</t>
+  </si>
+  <si>
+    <t>CVE-2017-14156</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://marc.info/?l=linux-kernel&amp;m=150401461613306&amp;w=2</t>
+  </si>
+  <si>
+    <t>CVE-2017-16527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/torvalds/linux/commit/124751d5e63c823092060074bd0abaae61aaa9c4</t>
+  </si>
+  <si>
+    <t>CVE-2017-18222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/torvalds/linux/commit/412b65d15a7f8a93794653968308fc100f2aa87c</t>
+  </si>
+  <si>
+    <t>CVE-2018-10876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git.kernel.org/pub/scm/linux/kernel/git/torvalds/linux.git/commit/?id=8844618d8aa7a9973e7b527d038a2a589665002c</t>
+  </si>
+  <si>
+    <t>CVE-2019-19073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/torvalds/linux/commit/853acf7caf10b828102d92d05b5c101666a6142b</t>
+  </si>
+  <si>
+    <t>CVE-2019-2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2019-19448</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏洞存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bobfuzzer/CVE/tree/master/CVE-2019-19448</t>
+  </si>
+  <si>
+    <t>CVE-2020-26141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lore.kernel.org/linux-wireless/20210511200110.c3f1d42c6746.I795593fcaae941c471425b8c7d5f7bb185d29142@changeid/</t>
+  </si>
+  <si>
+    <t>已修复</t>
+  </si>
+  <si>
+    <t>已修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2020-29534</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git.kernel.org/pub/scm/linux/kernel/git/torvalds/linux.git/commit/?id=0f2122045b946241a9e549c2a76cea54fa58a7ff</t>
+  </si>
+  <si>
+    <t>部分修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2022-1199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/torvalds/linux/commit/4e0f718daf97d47cf7dec122da1be970f145c809</t>
+  </si>
+  <si>
+    <t>CVE-2022-33742</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redebug 监测部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -249,7 +452,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -281,6 +484,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -314,20 +532,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,20 +869,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96C06AF-2ADD-9B49-A485-6431CCFFAFDD}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
-    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="13.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -666,18 +890,18 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -686,18 +910,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD58ADEC-7B2A-0A47-876E-4E45C90867D2}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -705,75 +929,84 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>51</v>
-      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
     <sortCondition ref="A2:A7"/>
   </sortState>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -788,18 +1021,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16650707-FF96-F24E-A445-D69D046B8A21}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -807,215 +1040,224 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C20">
     <sortCondition ref="A2:A20"/>
   </sortState>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1043,15 +1285,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EFEB43-687E-1F42-AC8F-D6E0E2D79D03}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1059,9 +1304,317 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A29">
+    <sortCondition ref="A2:A29"/>
+  </sortState>
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验项目.xlsx
+++ b/实验项目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoxu/Downloads/w/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2361F045-48DE-0342-8168-99B4D022675F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29BE0CD-5413-6446-951D-29E58CFADA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9840" yWindow="760" windowWidth="20400" windowHeight="13040" activeTab="3" xr2:uid="{74B75C6C-09FB-9C47-A3C3-9794FC78C573}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="122">
   <si>
     <t>Vuddy 监测部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,13 +284,6 @@
     <t>https://git.kernel.org/pub/scm/linux/kernel/git/torvalds/linux.git/commit/?id=9899d11f654474d2d54ea52ceaa2a1f4db3abd68</t>
   </si>
   <si>
-    <t>CVE-2013-2636</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/torvalds/linux/commit/c085c49920b2f900ba716b4ca1c1a55ece9872cc</t>
-  </si>
-  <si>
     <t>CVE-2013-2891</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,19 +426,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CVE-2022-1199</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/torvalds/linux/commit/4e0f718daf97d47cf7dec122da1be970f145c809</t>
-  </si>
-  <si>
     <t>CVE-2022-33742</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Redebug 监测部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2017-0749</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2015-8845</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2016-8401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2015-1339</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2022-34918</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2022-41218</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2022-1184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2017-5753</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2019-19074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/torvalds/linux/commit/2c5816b4beccc8ba709144539f6fdd764f8fa49c</t>
+  </si>
+  <si>
+    <t>https://github.com/torvalds/linux/commit/7f821fc9c77a9b01fe7b1d6e72717b33d8d64142</t>
+  </si>
+  <si>
+    <t>https://github.com/torvalds/linux/commit/728c1e2a05e4b5fc52fab3421dce772a806612a2</t>
+  </si>
+  <si>
+    <t>https://git.kernel.org/pub/scm/linux/kernel/git/torvalds/linux.git/commit/?id=46c116b920ebec58031f0a78c5ea9599b0d2a371</t>
+  </si>
+  <si>
+    <t>https://git.kernel.org/pub/scm/linux/kernel/git/netdev/net.git/commit/?id=7e6bc1f6cabcd30aba0b11219d8e01b952eacbb6</t>
+  </si>
+  <si>
+    <t>https://git.kernel.org/pub/scm/linux/kernel/git/torvalds/linux.git/commit/?id=fd3d91ab1c6ab0628fe642dd570b56302c30a792</t>
   </si>
 </sst>
 </file>
@@ -532,7 +572,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -545,13 +585,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -891,12 +934,12 @@
       <c r="D1" s="3"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -942,7 +985,7 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>46</v>
@@ -994,7 +1037,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1045,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -1127,7 +1170,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>36</v>
@@ -1138,7 +1181,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>29</v>
@@ -1149,7 +1192,7 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
@@ -1160,7 +1203,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -1171,7 +1214,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>32</v>
@@ -1193,7 +1236,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
@@ -1204,7 +1247,7 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>34</v>
@@ -1226,7 +1269,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -1237,7 +1280,7 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
@@ -1245,7 +1288,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1285,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EFEB43-687E-1F42-AC8F-D6E0E2D79D03}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1305,7 +1348,7 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
@@ -1313,7 +1356,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
@@ -1324,7 +1367,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B4" t="s">
@@ -1335,7 +1378,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B5" t="s">
@@ -1346,7 +1389,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B6" t="s">
@@ -1357,7 +1400,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B7" t="s">
@@ -1368,253 +1411,321 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" t="s">
         <v>104</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A29">
-    <sortCondition ref="A2:A29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A34">
+    <sortCondition ref="A2:A34"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A37:D37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
